--- a/work/V1.2_新增字段(30号更新).xlsx
+++ b/work/V1.2_新增字段(30号更新).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB7FB8-A99D-47A3-8376-A038725F99FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DD87B0-2DBF-4305-97E6-6FF24A8458F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="2610" windowWidth="26565" windowHeight="14685" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13635" yWindow="1005" windowWidth="26565" windowHeight="14685" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
-    <sheet name="上部结构材料" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="上部结构材料" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -428,7 +429,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="491">
   <si>
     <t>字段名</t>
   </si>
@@ -2992,84 +2993,45 @@
     <t>其他说明(上部结构悬臂梁桥--防落梁装置)</t>
   </si>
   <si>
-    <t>material_abmt</t>
-  </si>
-  <si>
     <t>材料(下部结构--桥台)abutment</t>
   </si>
   <si>
     <t>bge_substructure_info</t>
   </si>
   <si>
-    <t>basic_type_abmt</t>
-  </si>
-  <si>
     <t>基础类型(下部结构--桥台)</t>
   </si>
   <si>
-    <t>base_size_abmt</t>
-  </si>
-  <si>
     <t>基底尺寸(下部结构--桥台)</t>
   </si>
   <si>
-    <t>pile_row_abmt</t>
-  </si>
-  <si>
     <t>桩基排数(下部结构--桥台)</t>
   </si>
   <si>
-    <t>material_dskht</t>
-  </si>
-  <si>
     <t>材料(下部结构--台帽)desk hat</t>
   </si>
   <si>
-    <t>section_shape_dskht</t>
-  </si>
-  <si>
     <t>截面形状(下部结构--台帽)</t>
   </si>
   <si>
-    <t>length_dskht</t>
-  </si>
-  <si>
     <t>长度(下部结构--台帽)</t>
   </si>
   <si>
-    <t>height_dskht</t>
-  </si>
-  <si>
     <t>高度(下部结构--台帽)</t>
   </si>
   <si>
-    <t>width_dskht</t>
-  </si>
-  <si>
     <t>宽度(下部结构--台帽)</t>
   </si>
   <si>
-    <t>material_cslp</t>
-  </si>
-  <si>
     <t>材料(下部结构--锥坡)cone slope</t>
   </si>
   <si>
-    <t>height_cslp</t>
-  </si>
-  <si>
     <t>高度(下部结构--锥坡)</t>
   </si>
   <si>
-    <t>slope_ratio_cslp</t>
-  </si>
-  <si>
     <t>放坡比(下部结构--锥坡)</t>
   </si>
   <si>
-    <t>material_spt</t>
-  </si>
-  <si>
     <t>支座材料(下部结构--支座)support</t>
   </si>
   <si>
@@ -3082,9 +3044,6 @@
     <t>厚度(下部结构--支座)</t>
   </si>
   <si>
-    <t>number_spt</t>
-  </si>
-  <si>
     <t>支座个数(下部结构--支座)</t>
   </si>
   <si>
@@ -3094,156 +3053,81 @@
     <t>吨位(下部结构--支座)</t>
   </si>
   <si>
-    <t>pavement_length</t>
-  </si>
-  <si>
     <t>路面长度(附属工程)</t>
   </si>
   <si>
     <t>bge_ancillary_info</t>
   </si>
   <si>
-    <t>pavement_width</t>
-  </si>
-  <si>
     <t>路面宽度(附属工程)</t>
   </si>
   <si>
-    <t>attach_pipeline</t>
-  </si>
-  <si>
     <t>附挂管线(附属工程)</t>
   </si>
   <si>
-    <t>form_frm</t>
-  </si>
-  <si>
     <t>形式(附属工程--防撞架)Anti-collision frame</t>
   </si>
   <si>
-    <t>material_frm</t>
-  </si>
-  <si>
     <t>材料(附属工程--防撞架)</t>
   </si>
   <si>
-    <t>height_frm</t>
-  </si>
-  <si>
     <t>高度(附属工程--防撞架)</t>
   </si>
   <si>
-    <t>length_frm</t>
-  </si>
-  <si>
     <t>长度(附属工程--防撞架)</t>
   </si>
   <si>
-    <t>form_bar</t>
-  </si>
-  <si>
     <t>形式(附属工程--防撞栏)Crash barrier</t>
   </si>
   <si>
-    <t>material_bar</t>
-  </si>
-  <si>
     <t>材料(附属工程--防撞栏)</t>
   </si>
   <si>
-    <t>height_bar</t>
-  </si>
-  <si>
     <t>高度(附属工程--防撞栏)</t>
   </si>
   <si>
-    <t>length_bar</t>
-  </si>
-  <si>
     <t>长度(附属工程--防撞栏)</t>
   </si>
   <si>
-    <t>form_isoz</t>
-  </si>
-  <si>
     <t>形式(附属工程--隔离带)Isolation zone</t>
   </si>
   <si>
-    <t>material_isoz</t>
-  </si>
-  <si>
     <t>材料(附属工程--隔离带)</t>
   </si>
   <si>
-    <t>form_sd</t>
-  </si>
-  <si>
     <t>形式(附属工程--隔音带)Sound insulation tape</t>
   </si>
   <si>
-    <t>material_sdtp</t>
-  </si>
-  <si>
     <t>材料(附属工程--隔音带)</t>
   </si>
   <si>
-    <t>form_sdsn</t>
-  </si>
-  <si>
     <t>形式(附属工程--隔音屏)Soundproof screen</t>
   </si>
   <si>
-    <t>material_sdsn</t>
-  </si>
-  <si>
     <t>材料(附属工程--隔音屏)</t>
   </si>
   <si>
-    <t>height_sdsn</t>
-  </si>
-  <si>
     <t>高度(附属工程--隔音屏)</t>
   </si>
   <si>
-    <t>length_sdsn</t>
-  </si>
-  <si>
     <t>长度(附属工程--隔音屏)</t>
   </si>
   <si>
-    <t>load_card_material</t>
-  </si>
-  <si>
     <t>限载牌材料(附属工程--指示牌)indicator</t>
   </si>
   <si>
-    <t>load_card_number</t>
-  </si>
-  <si>
     <t>限载牌数量(附属工程--指示牌)</t>
   </si>
   <si>
-    <t>load_card_size</t>
-  </si>
-  <si>
     <t>限载牌规格(附属工程--指示牌)</t>
   </si>
   <si>
-    <t>traffic_card_material</t>
-  </si>
-  <si>
     <t>交通指示牌材料(附属工程--指示牌)Traffic signs</t>
   </si>
   <si>
-    <t>traffic_card_number</t>
-  </si>
-  <si>
     <t>交通指示牌数量(附属工程--指示牌)</t>
   </si>
   <si>
-    <t>traffic_card_size</t>
-  </si>
-  <si>
     <t>交通指示牌规格(附属工程--指示牌)</t>
   </si>
   <si>
@@ -3626,10 +3510,6 @@
   </si>
   <si>
     <t>截面形状(支座)(实心矩形,钢结构,挖空矩形)</t>
-  </si>
-  <si>
-    <t>类型(下部结构--支座)(甲方暂时未提供字典数据)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>clapboard_material</t>
@@ -3723,6 +3603,218 @@
   </si>
   <si>
     <t>材料(上部结构悬臂梁桥--防落梁装置)Anti-falling beam device  --11</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_spt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_substructure_info</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">类型(下部结构--支座)(甲方暂时未提供字典数据) </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_abmt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic_type_abmt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_size_abmt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>pile_row_abmt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_dskht</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>section_shape_dskht</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>length_dskht</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>height_dskht</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>width_dskht</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_cslp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>height_cslp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>slope_ratio_cslp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_spt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness_spt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_spt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>tonnage_spt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_ancillary_info</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>pavement_length</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>pavement_width</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach_pipeline</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_frm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_frm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>height_frm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>length_frm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_bar</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_bar</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>height_bar</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>length_bar</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_isoz</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_isoz</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_sd</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_sdtp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_sdsn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_sdsn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>height_sdsn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>length_sdsn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_card_material</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_card_number</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_card_size</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic_card_material</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic_card_number</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic_card_size</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>drain_tube_type</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>smooth_width</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥头平顺宽度</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水管类型</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_surface_device 桥面设施</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_step_ladder人行步梯</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_pier_info桥墩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginfo_id</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -4004,6 +4096,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30815C9-C74B-42C2-9AEC-591D58CAEAFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="266700" y="600075"/>
+          <a:ext cx="15916275" cy="3895725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4305,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4939,7 +5097,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>80</v>
@@ -5042,6 +5200,9 @@
       </c>
       <c r="H52" s="2"/>
     </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="2"/>
+    </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>95</v>
@@ -5052,6 +5213,7 @@
       <c r="D54" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
@@ -5063,6 +5225,7 @@
       <c r="D55" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
@@ -5074,6 +5237,7 @@
       <c r="D56" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
@@ -5085,6 +5249,7 @@
       <c r="D57" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
@@ -5099,6 +5264,7 @@
       <c r="E58" t="s">
         <v>62</v>
       </c>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
@@ -5110,6 +5276,7 @@
       <c r="D59" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
@@ -5121,6 +5288,7 @@
       <c r="D60" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
@@ -5132,6 +5300,7 @@
       <c r="D61" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
@@ -5143,20 +5312,22 @@
       <c r="D62" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>115</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>466</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
@@ -5171,8 +5342,9 @@
       <c r="E64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>118</v>
       </c>
@@ -5182,8 +5354,9 @@
       <c r="D65" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>120</v>
       </c>
@@ -5193,8 +5366,9 @@
       <c r="D66" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>122</v>
       </c>
@@ -5204,8 +5378,9 @@
       <c r="D67" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>124</v>
       </c>
@@ -5215,8 +5390,9 @@
       <c r="D68" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>126</v>
       </c>
@@ -5226,8 +5402,15 @@
       <c r="D69" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>95</v>
       </c>
@@ -5237,8 +5420,9 @@
       <c r="D72" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>130</v>
       </c>
@@ -5248,8 +5432,9 @@
       <c r="D73" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>133</v>
       </c>
@@ -5259,8 +5444,9 @@
       <c r="D74" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>135</v>
       </c>
@@ -5270,19 +5456,21 @@
       <c r="D75" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="D76" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>138</v>
       </c>
@@ -5295,8 +5483,9 @@
       <c r="E77" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>140</v>
       </c>
@@ -5306,8 +5495,9 @@
       <c r="D78" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>142</v>
       </c>
@@ -5317,8 +5507,9 @@
       <c r="D79" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>144</v>
       </c>
@@ -5328,8 +5519,9 @@
       <c r="D80" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>146</v>
       </c>
@@ -5339,19 +5531,21 @@
       <c r="D81" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="D82" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>149</v>
       </c>
@@ -5361,8 +5555,9 @@
       <c r="D83" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>151</v>
       </c>
@@ -5372,8 +5567,9 @@
       <c r="D84" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>153</v>
       </c>
@@ -5383,19 +5579,21 @@
       <c r="D85" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="D86" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>156</v>
       </c>
@@ -5408,8 +5606,9 @@
       <c r="E87" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>158</v>
       </c>
@@ -5419,8 +5618,9 @@
       <c r="D88" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>160</v>
       </c>
@@ -5430,19 +5630,21 @@
       <c r="D89" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="D90" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>163</v>
       </c>
@@ -5455,8 +5657,9 @@
       <c r="E91" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>165</v>
       </c>
@@ -5466,8 +5669,9 @@
       <c r="D92" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>167</v>
       </c>
@@ -5477,8 +5681,9 @@
       <c r="D93" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>169</v>
       </c>
@@ -5488,19 +5693,21 @@
       <c r="D94" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="D95" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>172</v>
       </c>
@@ -5513,8 +5720,9 @@
       <c r="E96" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>174</v>
       </c>
@@ -5524,8 +5732,9 @@
       <c r="D97" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>176</v>
       </c>
@@ -5535,8 +5744,9 @@
       <c r="D98" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>178</v>
       </c>
@@ -5546,8 +5756,9 @@
       <c r="D99" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>180</v>
       </c>
@@ -5557,8 +5768,9 @@
       <c r="D100" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>182</v>
       </c>
@@ -5568,8 +5780,12 @@
       <c r="D101" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>95</v>
       </c>
@@ -5579,8 +5795,9 @@
       <c r="D103" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>185</v>
       </c>
@@ -5593,8 +5810,9 @@
       <c r="E104" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>188</v>
       </c>
@@ -5604,8 +5822,9 @@
       <c r="D105" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>190</v>
       </c>
@@ -5615,8 +5834,9 @@
       <c r="D106" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>192</v>
       </c>
@@ -5626,19 +5846,21 @@
       <c r="D107" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>193</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="D108" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>194</v>
       </c>
@@ -5648,8 +5870,9 @@
       <c r="D109" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>196</v>
       </c>
@@ -5659,8 +5882,9 @@
       <c r="D110" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>198</v>
       </c>
@@ -5670,8 +5894,9 @@
       <c r="D111" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>200</v>
       </c>
@@ -5681,8 +5906,9 @@
       <c r="D112" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="10" t="s">
         <v>202</v>
       </c>
@@ -5692,8 +5918,9 @@
       <c r="D113" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>204</v>
       </c>
@@ -5703,8 +5930,9 @@
       <c r="D114" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>206</v>
       </c>
@@ -5714,13 +5942,14 @@
       <c r="D115" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="D116" t="s">
         <v>187</v>
@@ -5728,8 +5957,9 @@
       <c r="E116" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>209</v>
       </c>
@@ -5739,8 +5969,9 @@
       <c r="D117" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>211</v>
       </c>
@@ -5750,8 +5981,9 @@
       <c r="D118" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>213</v>
       </c>
@@ -5761,8 +5993,9 @@
       <c r="D119" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>215</v>
       </c>
@@ -5772,8 +6005,9 @@
       <c r="D120" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>217</v>
       </c>
@@ -5783,19 +6017,21 @@
       <c r="D121" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B122" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="D122" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>220</v>
       </c>
@@ -5805,8 +6041,9 @@
       <c r="D123" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>222</v>
       </c>
@@ -5816,8 +6053,9 @@
       <c r="D124" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" s="16" t="s">
         <v>224</v>
       </c>
@@ -5827,8 +6065,9 @@
       <c r="D125" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>226</v>
       </c>
@@ -5838,8 +6077,9 @@
       <c r="D126" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>228</v>
       </c>
@@ -5849,8 +6089,9 @@
       <c r="D127" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>230</v>
       </c>
@@ -5860,8 +6101,9 @@
       <c r="D128" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="16" t="s">
         <v>232</v>
       </c>
@@ -5871,13 +6113,14 @@
       <c r="D129" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="D130" t="s">
         <v>187</v>
@@ -5885,8 +6128,9 @@
       <c r="E130" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>235</v>
       </c>
@@ -5896,8 +6140,9 @@
       <c r="D131" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>237</v>
       </c>
@@ -5907,8 +6152,9 @@
       <c r="D132" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>239</v>
       </c>
@@ -5918,8 +6164,9 @@
       <c r="D133" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>241</v>
       </c>
@@ -5929,13 +6176,14 @@
       <c r="D134" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="D135" t="s">
         <v>187</v>
@@ -5943,8 +6191,9 @@
       <c r="E135" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>244</v>
       </c>
@@ -5954,8 +6203,9 @@
       <c r="D136" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>246</v>
       </c>
@@ -5965,8 +6215,9 @@
       <c r="D137" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>248</v>
       </c>
@@ -5976,8 +6227,9 @@
       <c r="D138" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>250</v>
       </c>
@@ -5987,745 +6239,763 @@
       <c r="D139" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H139" s="2"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C141" t="s">
         <v>252</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>253</v>
       </c>
-      <c r="D141" t="s">
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>442</v>
+      </c>
+      <c r="C142" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
+      <c r="D142" t="s">
+        <v>253</v>
+      </c>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>443</v>
+      </c>
+      <c r="C143" t="s">
         <v>255</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D143" t="s">
+        <v>253</v>
+      </c>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>444</v>
+      </c>
+      <c r="C144" t="s">
         <v>256</v>
       </c>
-      <c r="D142" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
+      <c r="D144" t="s">
+        <v>253</v>
+      </c>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C145" t="s">
         <v>257</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D145" t="s">
+        <v>253</v>
+      </c>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>446</v>
+      </c>
+      <c r="C146" t="s">
         <v>258</v>
       </c>
-      <c r="D143" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
+      <c r="D146" t="s">
+        <v>253</v>
+      </c>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>447</v>
+      </c>
+      <c r="C147" t="s">
         <v>259</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D147" t="s">
+        <v>253</v>
+      </c>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>448</v>
+      </c>
+      <c r="C148" t="s">
         <v>260</v>
       </c>
-      <c r="D144" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="3" t="s">
+      <c r="D148" t="s">
+        <v>253</v>
+      </c>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>449</v>
+      </c>
+      <c r="C149" t="s">
         <v>261</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D149" t="s">
+        <v>253</v>
+      </c>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C150" t="s">
         <v>262</v>
       </c>
-      <c r="D145" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
+      <c r="D150" t="s">
+        <v>253</v>
+      </c>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>451</v>
+      </c>
+      <c r="C151" t="s">
         <v>263</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D151" t="s">
+        <v>253</v>
+      </c>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>452</v>
+      </c>
+      <c r="C152" t="s">
         <v>264</v>
       </c>
-      <c r="D146" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
+      <c r="D152" t="s">
+        <v>253</v>
+      </c>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" t="s">
         <v>265</v>
       </c>
-      <c r="C147" t="s">
-        <v>266</v>
-      </c>
-      <c r="D147" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>267</v>
-      </c>
-      <c r="C148" t="s">
-        <v>268</v>
-      </c>
-      <c r="D148" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>269</v>
-      </c>
-      <c r="C149" t="s">
-        <v>270</v>
-      </c>
-      <c r="D149" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C150" t="s">
-        <v>272</v>
-      </c>
-      <c r="D150" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>273</v>
-      </c>
-      <c r="C151" t="s">
-        <v>274</v>
-      </c>
-      <c r="D151" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>275</v>
-      </c>
-      <c r="C152" t="s">
-        <v>276</v>
-      </c>
-      <c r="D152" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>277</v>
-      </c>
-      <c r="C153" t="s">
-        <v>278</v>
-      </c>
       <c r="D153" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>279</v>
+        <v>438</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="D154" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E154" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="C155" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D155" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>282</v>
+        <v>455</v>
       </c>
       <c r="C156" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D156" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="C157" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D157" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>286</v>
+        <v>458</v>
       </c>
       <c r="C159" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D159" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>289</v>
+        <v>459</v>
       </c>
       <c r="C160" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D160" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>291</v>
+        <v>460</v>
       </c>
       <c r="C161" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D161" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>293</v>
+        <v>461</v>
       </c>
       <c r="C162" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D162" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
-        <v>295</v>
+        <v>462</v>
       </c>
       <c r="C163" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D163" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>297</v>
+        <v>463</v>
       </c>
       <c r="C164" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D164" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>299</v>
+        <v>464</v>
       </c>
       <c r="C165" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D165" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>301</v>
+        <v>465</v>
       </c>
       <c r="C166" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D166" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
-        <v>303</v>
+        <v>466</v>
       </c>
       <c r="C167" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="D167" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="C168" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D168" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>307</v>
+        <v>468</v>
       </c>
       <c r="C169" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="D169" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>309</v>
+        <v>469</v>
       </c>
       <c r="C170" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D170" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
-        <v>311</v>
+        <v>470</v>
       </c>
       <c r="C171" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="D171" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="C172" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="D172" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="C173" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="D173" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>317</v>
+        <v>473</v>
       </c>
       <c r="C174" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="D174" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
-        <v>319</v>
+        <v>474</v>
       </c>
       <c r="C175" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="D175" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>321</v>
+        <v>475</v>
       </c>
       <c r="C176" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="D176" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>323</v>
+        <v>476</v>
       </c>
       <c r="C177" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="D177" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="C178" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="D178" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>327</v>
+        <v>478</v>
       </c>
       <c r="C179" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D179" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>329</v>
+        <v>479</v>
       </c>
       <c r="C180" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="D180" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="C181" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="D181" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>333</v>
+        <v>481</v>
       </c>
       <c r="C182" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="D182" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>335</v>
+        <v>482</v>
       </c>
       <c r="C183" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="D183" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>95</v>
+        <v>490</v>
       </c>
       <c r="C186" t="s">
         <v>128</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>337</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="D187" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="D188" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C189" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D189" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C190" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="D190" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="D191" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="D192" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="C193" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D193" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="D194" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="D195" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="C196" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="D196" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="C197" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D197" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="C198" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="D198" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="C199" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="D199" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="C200" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="D200" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="C201" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="D201" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="C202" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="D202" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="D203" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="D204" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C205" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="D205" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="C206" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="D206" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="D207" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="D208" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="C209" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="D209" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C210" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="D210" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
@@ -6736,183 +7006,183 @@
         <v>128</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>386</v>
+        <v>488</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="C214" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="D214" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C215" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="D215" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="C216" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="D216" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="C217" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="C218" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="D218" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="C219" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="D219" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="C220" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="D220" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C221" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="D221" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="C222" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="D222" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="C223" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="D223" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="C224" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="D224" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C225" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="D225" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="C226" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="D226" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="C227" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="D227" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C228" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="D228" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="C230" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
@@ -6923,285 +7193,285 @@
         <v>128</v>
       </c>
       <c r="D231" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" s="3" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="C232" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="D232" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="C233" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="D233" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="C234" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="D234" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="C235" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="D235" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C236" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="D236" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B237" s="3" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="C237" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="D237" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C238" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="D238" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="C239" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="D239" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="C240" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="D240" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="C241" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="D241" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B242" s="3" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="C242" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="D242" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="C243" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="D243" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="C244" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="D244" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="C245" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="D245" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="C246" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="D246" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="C247" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="D247" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="C248" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="D248" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="C249" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="D249" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="H249" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="C250" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D250" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B251" s="3" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="D251" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C252" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="D252" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C253" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="D253" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="C254" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="D254" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C255" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="D255" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="D256" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -7213,6 +7483,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2418EA2-B3AB-479A-AC68-FDEB3F21FBD1}">
+  <dimension ref="D33:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>484</v>
+      </c>
+      <c r="F33" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>483</v>
+      </c>
+      <c r="F34" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99509CD9-E53D-4AD3-8495-5289436CB9D1}">
   <dimension ref="A1"/>
   <sheetViews>
